--- a/biology/Médecine/Vis_de_Herbert/Vis_de_Herbert.xlsx
+++ b/biology/Médecine/Vis_de_Herbert/Vis_de_Herbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vis de Herbert (inventée par Timothy Herbert) est une vis à canule à pas variable, généralement fabriquée en titane pour ses propriétés inoxydables, la vis est normalement destinée à rester indéfiniment dans le patient. Elle disponible depuis 1978[1],[2]. Elle est également appelée « vis de compression sans tête » et est utilisée pour réaliser une compression interfragmentaire grâce à son pas différentiel (distance entre les filets de vis adjacents). 
-Elle est utilisée dans les scaphoïdes, le capitellum, la tête radiale et les fractures ostéochondrales. Les autres utilisations comprennent l'ostéochondrite disséquante et l'arthrodèse des petites articulations[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vis de Herbert (inventée par Timothy Herbert) est une vis à canule à pas variable, généralement fabriquée en titane pour ses propriétés inoxydables, la vis est normalement destinée à rester indéfiniment dans le patient. Elle disponible depuis 1978,. Elle est également appelée « vis de compression sans tête » et est utilisée pour réaliser une compression interfragmentaire grâce à son pas différentiel (distance entre les filets de vis adjacents). 
+Elle est utilisée dans les scaphoïdes, le capitellum, la tête radiale et les fractures ostéochondrales. Les autres utilisations comprennent l'ostéochondrite disséquante et l'arthrodèse des petites articulations. 
 </t>
         </is>
       </c>
